--- a/supportfile/to do/Fiskokimia FG 2019.xlsx
+++ b/supportfile/to do/Fiskokimia FG 2019.xlsx
@@ -18340,7 +18340,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
   <userInfo guid="{C62A8701-F8CF-4858-A64F-AC0F1B10AFA9}" name="Hilda Utami Anwar - QA" id="-1130137132" dateTime="2019-06-25T09:57:08"/>
   <userInfo guid="{C62A8701-F8CF-4858-A64F-AC0F1B10AFA9}" name="An Niza El Aisnada" id="-2118343482" dateTime="2019-06-25T09:58:00"/>
   <userInfo guid="{508F109A-4940-408B-9ABF-6445AAACD597}" name="An Niza El Aisnada" id="-2118357221" dateTime="2019-06-26T07:30:36"/>
@@ -18349,6 +18349,7 @@
   <userInfo guid="{E821BFA1-B93B-4F52-B8AA-AF77D93AE034}" name="qc.rtd" id="-554485515" dateTime="2019-07-11T09:26:46"/>
   <userInfo guid="{5AFA348D-01A3-4409-AD7B-19080C0BD1CE}" name="qc.rtd" id="-554476188" dateTime="2019-07-11T10:39:09"/>
   <userInfo guid="{831207C5-8C5C-4C35-8FEA-230564A20FE6}" name="qc.rtd" id="-554458625" dateTime="2019-07-15T14:03:16"/>
+  <userInfo guid="{831207C5-8C5C-4C35-8FEA-230564A20FE6}" name="maulana.nesta" id="-213647768" dateTime="2019-07-21T11:44:44"/>
 </users>
 </file>
 
